--- a/New files/South Georgia Health System/Invoice - #4185042 Cath Lab.xlsx
+++ b/New files/South Georgia Health System/Invoice - #4185042 Cath Lab.xlsx
@@ -2406,4 +2406,276 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9ca6de6a992593ec3295afdb73980d5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c3625fcdb5b97911e04df756c65f947" ns2:_="" ns3:_="">
+    <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
+    <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45be6600-ce97-4f91-b2b5-90c5c801df6a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94b3629e-20aa-442c-aac2-3c67759175e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="24" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6c69ecb4-97a0-434f-9afd-668c5bcfe455}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4ff60255-49bc-4e52-8060-8afe9711eecb">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D45FEDC7-D029-4EBA-A0FD-1DEE2900E0CC}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75D32D6C-7ACE-4394-96F5-6F73E3DA1074}"/>
 </file>
--- a/New files/South Georgia Health System/Invoice - #4185042 Cath Lab.xlsx
+++ b/New files/South Georgia Health System/Invoice - #4185042 Cath Lab.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26039F98-CBDB-45F9-B064-644B372122C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0BBEE09-5019-4464-BC83-F598D91505E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1B89A8AD-A422-477F-9AAD-0DB79EFFA416}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7308942-B63C-497C-9271-EEBD3B631AB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -566,20 +566,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1676400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502CD8DB-A748-8937-47D8-0D234AB166EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7CE676-3522-843D-DD3D-686626D319FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -910,24 +910,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81A9B42-CAC7-4270-883E-F7433457EBE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EEE5D2-3D33-4E1E-AEC3-50A7F7B241DA}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="44"/>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -940,7 +940,7 @@
       <c r="J1" s="47"/>
       <c r="K1" s="48"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>
       <c r="G2" s="7" t="s">
         <v>1</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="42"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -960,7 +960,7 @@
       </c>
       <c r="K3" s="39"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
       <c r="G4" s="7" t="s">
         <v>3</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="K4" s="39"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="42"/>
       <c r="G5" s="7" t="s">
         <v>4</v>
@@ -980,7 +980,7 @@
       </c>
       <c r="K5" s="39"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="42"/>
       <c r="G6" s="7" t="s">
         <v>5</v>
@@ -990,18 +990,18 @@
       </c>
       <c r="K6" s="39"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="G7" s="7"/>
       <c r="J7" s="2"/>
       <c r="K7" s="39"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
       <c r="J8" s="2"/>
       <c r="K8" s="39"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
       <c r="G9" s="8" t="s">
         <v>6</v>
@@ -1011,14 +1011,14 @@
       </c>
       <c r="K9" s="39"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
       <c r="J10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="39"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="9"/>
       <c r="J11" s="4" t="s">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="K11" s="39"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="9" t="s">
         <v>0</v>
@@ -1034,7 +1034,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="39"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="9" t="s">
         <v>16</v>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="K13" s="39"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="9" t="s">
         <v>17</v>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="K14" s="39"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="9" t="s">
         <v>18</v>
@@ -1064,13 +1064,13 @@
       </c>
       <c r="K15" s="39"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="9"/>
       <c r="J16" s="2"/>
       <c r="K16" s="39"/>
     </row>
-    <row r="17" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1085,11 +1085,11 @@
       <c r="J17" s="1"/>
       <c r="K17" s="39"/>
     </row>
-    <row r="18" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="K18" s="39"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="C19" s="10" t="s">
         <v>16</v>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="K19" s="39"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -1115,11 +1115,11 @@
       </c>
       <c r="K20" s="39"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="K21" s="39"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="C22" s="21" t="s">
         <v>21</v>
@@ -1139,7 +1139,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="39"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="C23" s="22" t="s">
         <v>23</v>
@@ -1159,7 +1159,7 @@
       <c r="J23" s="29"/>
       <c r="K23" s="39"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="C24" s="23" t="s">
         <v>24</v>
@@ -1173,11 +1173,11 @@
       </c>
       <c r="K24" s="39"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
       <c r="K25" s="39"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="D26" s="21" t="s">
         <v>25</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="K26" s="39"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
       <c r="D27" s="22" t="s">
         <v>26</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="K27" s="39"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
       <c r="D28" s="26" t="s">
         <v>27</v>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="K28" s="39"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
       <c r="D29" s="22" t="s">
         <v>28</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="K29" s="39"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
       <c r="D30" s="27" t="s">
         <v>24</v>
@@ -1242,11 +1242,11 @@
       </c>
       <c r="K30" s="39"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
       <c r="K31" s="39"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
@@ -1274,29 +1274,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A351D878-2B89-42B5-9EB0-DAA9B4568825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D57EF2-5229-4F3F-9545-FCFEF45DBC0B}">
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>30</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>23</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>23</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>23</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>23</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>23</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>23</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>23</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>23</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>23</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>23</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>23</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>23</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>23</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>23</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>23</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>23</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>23</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>23</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>23</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>23</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>23</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>23</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
         <v>23</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
         <v>23</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
         <v>23</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
         <v>23</v>
       </c>
@@ -2406,276 +2406,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9ca6de6a992593ec3295afdb73980d5">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c3625fcdb5b97911e04df756c65f947" ns2:_="" ns3:_="">
-    <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
-    <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45be6600-ce97-4f91-b2b5-90c5c801df6a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94b3629e-20aa-442c-aac2-3c67759175e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="24" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6c69ecb4-97a0-434f-9afd-668c5bcfe455}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4ff60255-49bc-4e52-8060-8afe9711eecb">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D45FEDC7-D029-4EBA-A0FD-1DEE2900E0CC}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75D32D6C-7ACE-4394-96F5-6F73E3DA1074}"/>
 </file>
--- a/New files/South Georgia Health System/Invoice - #4185042 Cath Lab.xlsx
+++ b/New files/South Georgia Health System/Invoice - #4185042 Cath Lab.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECCF1386-F0EA-41A5-AD91-CE38A091BC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65ACE916-DBBD-485A-80FD-B87009444FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5709A0EB-57EB-417C-BAD0-B04F1D4835CA}"/>
+    <workbookView xWindow="-28920" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{BFC3A6A6-DA35-43BF-A4FC-F7DF0EFC9187}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>PO Box 674907</t>
   </si>
   <si>
-    <t>Dallas, TX 75267-4907</t>
+    <t>Dallas, TX 7526 - 4907</t>
   </si>
   <si>
     <t>PNC Bank. N.A</t>
@@ -579,7 +579,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{951636E5-4B55-A409-3D6C-C0881B589D02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{117255AA-2290-D6F6-B387-5D9E2552D296}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -930,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289216AE-99E9-40F2-A862-30B7CDF8F98C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897D5E69-3544-43F6-80E6-97FF8C9EABED}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1294,7 +1294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CE1661-76A3-41BD-A239-1CCB2BD9E40D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47876AFA-6E30-47C2-96C4-3ED3C63B8910}">
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/New files/South Georgia Health System/Invoice - #4185042 Cath Lab.xlsx
+++ b/New files/South Georgia Health System/Invoice - #4185042 Cath Lab.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65ACE916-DBBD-485A-80FD-B87009444FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1421D82F-0686-41EC-87F6-C0F1D9324996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{BFC3A6A6-DA35-43BF-A4FC-F7DF0EFC9187}"/>
+    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{B7CC50E1-C1C4-48DA-A383-A252490F65AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -569,8 +569,8 @@
       <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
@@ -579,7 +579,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{117255AA-2290-D6F6-B387-5D9E2552D296}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FEE9226-CCB0-EE17-33A0-A54F0167A2FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -930,21 +930,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897D5E69-3544-43F6-80E6-97FF8C9EABED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2C728F-616C-4514-A3CA-3AAC470F2F46}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1294,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47876AFA-6E30-47C2-96C4-3ED3C63B8910}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265CB3C7-AD8B-4E1A-854C-2363ECBB5F63}">
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/New files/South Georgia Health System/Invoice - #4185042 Cath Lab.xlsx
+++ b/New files/South Georgia Health System/Invoice - #4185042 Cath Lab.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1421D82F-0686-41EC-87F6-C0F1D9324996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C17836AB-8AC5-436D-9529-83EB732FEF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{B7CC50E1-C1C4-48DA-A383-A252490F65AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A52C2723-3CEE-4206-A920-202EB552BDE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -566,20 +566,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>278130</xdr:colOff>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FEE9226-CCB0-EE17-33A0-A54F0167A2FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D0208EC-F6BB-1BE4-2EC5-D48CF58D512F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -930,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2C728F-616C-4514-A3CA-3AAC470F2F46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6E287B-42FA-4013-9EC8-C9972162A19B}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -943,9 +943,9 @@
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1296,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265CB3C7-AD8B-4E1A-854C-2363ECBB5F63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776D10DA-AD00-40C9-9FC4-415E6DA3BB51}">
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1310,11 +1310,11 @@
     <col min="5" max="5" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/New files/South Georgia Health System/Invoice - #4185042 Cath Lab.xlsx
+++ b/New files/South Georgia Health System/Invoice - #4185042 Cath Lab.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C17836AB-8AC5-436D-9529-83EB732FEF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ABAC996-7008-4312-9B8B-22BD21400866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A52C2723-3CEE-4206-A920-202EB552BDE3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4FDBBD30-9D55-4BC1-B8BF-D984E51AE429}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -566,20 +566,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D0208EC-F6BB-1BE4-2EC5-D48CF58D512F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA6B1339-D099-B7FF-4D94-26997059953F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -930,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6E287B-42FA-4013-9EC8-C9972162A19B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F491F95-8E12-4C2E-859B-0B09AD35CA9C}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -938,14 +938,14 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1296,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776D10DA-AD00-40C9-9FC4-415E6DA3BB51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9DE46E-C265-4B21-865A-52D7985296B9}">
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1310,11 +1310,11 @@
     <col min="5" max="5" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
